--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\India EPS\InputData UPDATE FOR INDIA\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5173E3-8760-4072-A15F-E153EF504B09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="23952" windowHeight="11328"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Source:</t>
   </si>
@@ -55,20 +64,71 @@
     <t>BVTStL Boolean Vehicle Types Subject to LCFS</t>
   </si>
   <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>India's biofuel blending mandates apply to on-road vehciels,</t>
-  </si>
-  <si>
-    <t>not non-road vehicles.</t>
+    <t>(Boolean)</t>
+  </si>
+  <si>
+    <t>The LCFS percentage set (both the BAU LCFS and the user-specified</t>
+  </si>
+  <si>
+    <t>Additional LCFS Percentage policy lever) will only refer to the fuel</t>
+  </si>
+  <si>
+    <t>used by the vehicle types specified in this variable.  Other vehicle</t>
+  </si>
+  <si>
+    <t>types will be unaffected by the LCFS.</t>
+  </si>
+  <si>
+    <t>India National Biofuel blending requirement</t>
+  </si>
+  <si>
+    <t>Ministry of Petroleum and Natural Gas/ Press Information Bureau</t>
+  </si>
+  <si>
+    <t>National Policy on Biofuel</t>
+  </si>
+  <si>
+    <t>https://pib.gov.in/PressReleasePage.aspx?PRID=1575404</t>
+  </si>
+  <si>
+    <t>India's biofuel blending targets apply only to on-road vehicles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While there are news articles referring to an aviation-biofuel policy in the </t>
+  </si>
+  <si>
+    <t>include aircrafts in the BAU as yet as the policy is not officially announced.</t>
+  </si>
+  <si>
+    <t>Biofuel in Aviation - India test flight/probable new Bio-ATF policy</t>
+  </si>
+  <si>
+    <t>SpiceJet operates India's first biofuel-powered flight from Dehradun to Delhi</t>
+  </si>
+  <si>
+    <t>https://economictimes.indiatimes.com/industry/transportation/airlines-/-aviation/spicejet-operates-indias-first-biojet-fuel-flight/articleshow/65560105.cms</t>
+  </si>
+  <si>
+    <t>Economic Times/quotes Nitin Gadkari (Minister of Road Transport &amp; Highways, Shipping)</t>
+  </si>
+  <si>
+    <t>offing, and test flights by commercial airlines using blended fuel - we don't</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sources are listed for reference. </t>
+  </si>
+  <si>
+    <t>We include railways as it is listed as one of the implementing ministries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the National Biofuel Policy document. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +144,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,10 +176,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -114,8 +189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -207,6 +285,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -242,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -417,69 +529,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.140625" customWidth="1"/>
+    <col min="4" max="4" width="58.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{69B01CCB-AD3F-4B58-A467-05348C4CD5DC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
@@ -487,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -498,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -509,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -520,18 +721,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -542,7 +743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5173E3-8760-4072-A15F-E153EF504B09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492B88C-673A-49AF-9C36-75D7567C6255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="260" windowWidth="19190" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -533,7 +536,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,7 +740,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C492B88C-673A-49AF-9C36-75D7567C6255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0452BA-DF5F-456C-BE82-85A55BE60C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="260" windowWidth="19190" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Source:</t>
   </si>
@@ -121,10 +121,7 @@
     <t xml:space="preserve">Sources are listed for reference. </t>
   </si>
   <si>
-    <t>We include railways as it is listed as one of the implementing ministries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in the National Biofuel Policy document. </t>
+    <t>We therefore exclude railways.</t>
   </si>
 </sst>
 </file>
@@ -535,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,11 +623,6 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -670,7 +662,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
+++ b/InputData/trans/BVTStL/Boolean Veh Types Subject to LCFS.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\trans\BVTStL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\BVTStL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5173E3-8760-4072-A15F-E153EF504B09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0452BA-DF5F-456C-BE82-85A55BE60C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BVTStL" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Source:</t>
   </si>
@@ -118,10 +121,7 @@
     <t xml:space="preserve">Sources are listed for reference. </t>
   </si>
   <si>
-    <t>We include railways as it is listed as one of the implementing ministries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in the National Biofuel Policy document. </t>
+    <t>We therefore exclude railways.</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,11 +623,6 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -667,7 +662,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,10 +721,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
